--- a/Config/Excel/Datas/GameConfig/TGlobalConfig.xlsx
+++ b/Config/Excel/Datas/GameConfig/TGlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>##column#var</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>列</t>
     </r>
     <r>
@@ -39,15 +45,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
+    <t>描述</t>
   </si>
   <si>
     <r>
@@ -74,6 +72,42 @@
   </si>
   <si>
     <t>背包起始容量</t>
+  </si>
+  <si>
+    <t>Router_Http_Host</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RouterManager地址</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>Router_Http_Port</t>
+  </si>
+  <si>
+    <t>RouterManager端口</t>
+  </si>
+  <si>
+    <t>Account_Host</t>
+  </si>
+  <si>
+    <t>账号服务器地址</t>
+  </si>
+  <si>
+    <t>Account_Port</t>
+  </si>
+  <si>
+    <t>账号服务器端口</t>
+  </si>
+  <si>
+    <t>Session_Timeout_Time</t>
+  </si>
+  <si>
+    <t>连接超时时间</t>
   </si>
 </sst>
 </file>
@@ -86,11 +120,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -552,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,34 +604,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,98 +640,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +742,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,7 +816,7 @@
     </dxf>
     <dxf>
       <font>
-        <name val="JetBrains Mono"/>
+        <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
@@ -796,8 +839,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="##column#var" dataDxfId="0"/>
     <tableColumn id="2" name="##type" dataDxfId="1"/>
@@ -1066,18 +1109,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="16.2" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.4166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.58333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1087,15 +1130,15 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1128,6 +1171,76 @@
       </c>
       <c r="D4" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>301000</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Datas/GameConfig/TGlobalConfig.xlsx
+++ b/Config/Excel/Datas/GameConfig/TGlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>##column#var</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>连接超时时间</t>
+  </si>
+  <si>
+    <t>BornPosition</t>
+  </si>
+  <si>
+    <t>MyFloat3</t>
+  </si>
+  <si>
+    <t>出生位置</t>
+  </si>
+  <si>
+    <t>50,8,40</t>
   </si>
 </sst>
 </file>
@@ -1109,16 +1121,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.4166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.8333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
   </cols>
@@ -1156,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1170,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1241,6 +1253,20 @@
       </c>
       <c r="D9" s="1">
         <v>301000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
